--- a/Kouponapp/fixtures/data6.xlsx
+++ b/Kouponapp/fixtures/data6.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaneekumsudsang/Senior-Project-65114540147/Kouponapp/fixtures/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350F3B8A-384C-5B42-9C08-A03385459144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Member" sheetId="1" r:id="rId4"/>
-    <sheet name="Store" sheetId="2" r:id="rId5"/>
-    <sheet name="Promotion" sheetId="3" r:id="rId6"/>
-    <sheet name="Coupon" sheetId="4" r:id="rId7"/>
-    <sheet name="Owner" sheetId="5" r:id="rId8"/>
+    <sheet name="Member" sheetId="1" r:id="rId1"/>
+    <sheet name="Store" sheetId="2" r:id="rId2"/>
+    <sheet name="Promotion" sheetId="3" r:id="rId3"/>
+    <sheet name="Coupon" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -55,10 +63,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>abby.adel@ubu.ac.th</t>
     </r>
@@ -78,10 +87,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>betsy.brensen@ubu.ac.th</t>
     </r>
@@ -101,10 +111,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>cathy.ceta@ubu.ac.th</t>
     </r>
@@ -124,10 +135,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>donny.dand@ubu.ac.th</t>
     </r>
@@ -147,10 +159,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>emily.davis@ubu.ac.th</t>
     </r>
@@ -170,10 +183,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>cindy.turner@ubu.ac.th</t>
     </r>
@@ -193,10 +207,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>lenny.clark@ubu.ac.th</t>
     </r>
@@ -216,10 +231,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>johnny.wilson@ubu.ac.th</t>
     </r>
@@ -239,10 +255,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>mandy.mitchell@ubu.ac.th</t>
     </r>
@@ -262,10 +279,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>holly.walker@ubu.ac.th</t>
     </r>
@@ -345,6 +363,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>สะสมครบ</t>
     </r>
@@ -353,6 +373,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 3 </t>
     </r>
@@ -361,6 +382,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>ใบ</t>
     </r>
@@ -369,6 +392,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -377,6 +401,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>ลด</t>
     </r>
@@ -385,6 +411,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 50 %</t>
     </r>
@@ -401,6 +428,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>สะสมครบ</t>
     </r>
@@ -409,6 +438,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 5 </t>
     </r>
@@ -417,6 +447,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>ใบ</t>
     </r>
@@ -425,6 +457,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -433,6 +466,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>ฟรี</t>
     </r>
@@ -441,6 +476,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 1 </t>
     </r>
@@ -449,6 +485,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>แก้ว</t>
     </r>
@@ -462,6 +500,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>สะสมครบ</t>
     </r>
@@ -470,6 +510,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 10 </t>
     </r>
@@ -478,6 +519,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>ใบ</t>
     </r>
@@ -486,6 +529,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -494,6 +538,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>ฟรี</t>
     </r>
@@ -502,6 +548,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 1 </t>
     </r>
@@ -510,6 +557,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>แก้ว</t>
     </r>
@@ -526,6 +575,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>สะสมครบ</t>
     </r>
@@ -534,6 +585,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 5 </t>
     </r>
@@ -542,6 +594,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>ใบ</t>
     </r>
@@ -550,6 +604,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -558,6 +613,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Thonburi"/>
+        <family val="2"/>
+        <charset val="222"/>
       </rPr>
       <t>ลด</t>
     </r>
@@ -566,6 +623,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 50 %</t>
     </r>
@@ -595,165 +653,47 @@
     <t>member_id</t>
   </si>
   <si>
-    <t>shop_logo</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>alice.anderson@ubu.ac.th</t>
-  </si>
-  <si>
-    <t>5678</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>0812345688</t>
-  </si>
-  <si>
-    <t>bella.brown@ubu.ac.th</t>
-  </si>
-  <si>
-    <t>5679</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>0812345689</t>
-  </si>
-  <si>
-    <t>clara.carter@ubu.ac.th</t>
-  </si>
-  <si>
-    <t>5680</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>0812345690</t>
-  </si>
-  <si>
-    <t>david.dawson@ubu.ac.th</t>
-  </si>
-  <si>
-    <t>5681</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>0812345691</t>
-  </si>
-  <si>
-    <t>emily.evans@ubu.ac.th</t>
-  </si>
-  <si>
-    <t>5682</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>0812345692</t>
-  </si>
-  <si>
-    <t>fiona.fisher@ubu.ac.th</t>
-  </si>
-  <si>
-    <t>5683</t>
-  </si>
-  <si>
-    <t>gg</t>
-  </si>
-  <si>
-    <t>0812345693</t>
-  </si>
-  <si>
-    <t>george.graham@ubu.ac.th</t>
-  </si>
-  <si>
-    <t>5684</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>0812345694</t>
-  </si>
-  <si>
-    <t>harry.hayes@ubu.ac.th</t>
-  </si>
-  <si>
-    <t>5685</t>
-  </si>
-  <si>
-    <t>ii</t>
-  </si>
-  <si>
-    <t>0812345695</t>
-  </si>
-  <si>
-    <t>isabella.irving@ubu.ac.th</t>
-  </si>
-  <si>
-    <t>5686</t>
-  </si>
-  <si>
-    <t>jj</t>
-  </si>
-  <si>
-    <t>0812345696</t>
-  </si>
-  <si>
-    <t>julia.johnson@ubu.ac.th</t>
-  </si>
-  <si>
-    <t>5687</t>
+    <t>is_owner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d/m/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="187" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Thonburi"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -770,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -928,146 +868,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff1155cc"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF1155CC"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1269,7 +1230,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1287,7 +1248,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1316,7 +1277,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1341,7 +1302,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1366,7 +1327,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1352,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1416,7 +1377,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1441,7 +1402,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1466,7 +1427,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1491,7 +1452,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1516,7 +1477,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1529,9 +1490,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1548,7 +1515,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1566,7 +1533,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1591,7 +1558,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1616,7 +1583,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1641,7 +1608,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1666,7 +1633,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1691,7 +1658,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1716,7 +1683,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1741,7 +1708,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1766,7 +1733,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1791,7 +1758,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1804,9 +1771,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1820,7 +1793,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1838,7 +1811,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1867,7 +1840,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1892,7 +1865,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1917,7 +1890,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1942,7 +1915,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1967,7 +1940,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1992,7 +1965,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2017,7 +1990,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2042,7 +2015,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2067,7 +2040,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2080,314 +2053,357 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.35156" style="1" customWidth="1"/>
-    <col min="2" max="4" width="10.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1719" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
+      <c r="I1" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4">
         <v>1234</v>
       </c>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="4">
         <v>1234</v>
       </c>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="4">
         <v>1234</v>
       </c>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="4">
         <v>1234</v>
       </c>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
+      <c r="I5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s" s="2">
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="4">
         <v>1234</v>
       </c>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
+      <c r="I6" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s" s="2">
+      <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="4">
         <v>1234</v>
       </c>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
+      <c r="I7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s" s="2">
+      <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s" s="2">
+      <c r="F8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="4">
         <v>1234</v>
       </c>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
+      <c r="I8" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="4">
         <v>1234</v>
       </c>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
+      <c r="I9" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="4">
         <v>1234</v>
       </c>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" ht="13.65" customHeight="1">
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="4">
         <v>1234</v>
       </c>
       <c r="H11" s="5"/>
+      <c r="I11" s="31">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" location="" tooltip="" display="abby.adel@ubu.ac.th"/>
-    <hyperlink ref="F3" r:id="rId2" location="" tooltip="" display="betsy.brensen@ubu.ac.th"/>
-    <hyperlink ref="F4" r:id="rId3" location="" tooltip="" display="cathy.ceta@ubu.ac.th"/>
-    <hyperlink ref="F5" r:id="rId4" location="" tooltip="" display="donny.dand@ubu.ac.th"/>
-    <hyperlink ref="F6" r:id="rId5" location="" tooltip="" display="emily.davis@ubu.ac.th"/>
-    <hyperlink ref="F7" r:id="rId6" location="" tooltip="" display="cindy.turner@ubu.ac.th"/>
-    <hyperlink ref="F8" r:id="rId7" location="" tooltip="" display="lenny.clark@ubu.ac.th"/>
-    <hyperlink ref="F9" r:id="rId8" location="" tooltip="" display="johnny.wilson@ubu.ac.th"/>
-    <hyperlink ref="F10" r:id="rId9" location="" tooltip="" display="mandy.mitchell@ubu.ac.th"/>
-    <hyperlink ref="F11" r:id="rId10" location="" tooltip="" display="holly.walker@ubu.ac.th"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2395,134 +2411,134 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.8516" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="10.8516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
+    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
+    <row r="3" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
+    <row r="11" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="4">
@@ -2531,7 +2547,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2539,97 +2555,98 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.17188" style="7" customWidth="1"/>
-    <col min="2" max="3" width="17" style="7" customWidth="1"/>
-    <col min="4" max="7" width="12.6719" style="7" customWidth="1"/>
-    <col min="8" max="8" width="26.6719" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.6719" style="7" customWidth="1"/>
-    <col min="10" max="10" width="11.6719" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="12.6719" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="8">
+    <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="9">
+      <c r="B1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s" s="10">
+      <c r="D1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s" s="10">
+      <c r="E1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s" s="10">
+      <c r="F1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H1" t="s" s="10">
+      <c r="H1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I1" t="s" s="10">
+      <c r="I1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J1" t="s" s="11">
+      <c r="J1" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="14">
+    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s" s="15">
+      <c r="D2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>3</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="14">
         <v>50</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="15">
         <v>0</v>
       </c>
-      <c r="H2" t="s" s="18">
+      <c r="H2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="17">
         <v>45303</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="18">
         <v>45657</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="21">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="22">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="23">
+      <c r="B3" s="20">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E3" s="4">
@@ -2638,30 +2655,30 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="22">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s" s="24">
+      <c r="G3" s="20">
+        <v>1</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="23">
         <v>45334</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="23">
         <v>45658</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="23">
+      <c r="C4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E4" s="4">
@@ -2670,30 +2687,30 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="22">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="24">
+      <c r="G4" s="20">
+        <v>1</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="23">
         <v>45363</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="23">
         <v>45689</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="21">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="23">
+      <c r="C5" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="4">
@@ -2702,30 +2719,30 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="22">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="24">
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="23">
         <v>45394</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <v>45717</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="21">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>4</v>
       </c>
-      <c r="C6" t="s" s="23">
+      <c r="C6" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="4">
@@ -2734,30 +2751,30 @@
       <c r="F6" s="4">
         <v>50</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>0</v>
       </c>
-      <c r="H6" t="s" s="24">
+      <c r="H6" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="23">
         <v>45424</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="23">
         <v>45748</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="21">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="23">
+      <c r="C7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E7" s="4">
@@ -2766,30 +2783,30 @@
       <c r="F7" s="4">
         <v>50</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <v>0</v>
       </c>
-      <c r="H7" t="s" s="24">
+      <c r="H7" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="23">
         <v>45455</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="23">
         <v>45778</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="21">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="23">
+      <c r="C8" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="4">
@@ -2798,30 +2815,30 @@
       <c r="F8" s="4">
         <v>50</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <v>0</v>
       </c>
-      <c r="H8" t="s" s="24">
+      <c r="H8" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="23">
         <v>45485</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="23">
         <v>45809</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="21">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>7</v>
       </c>
-      <c r="C9" t="s" s="23">
+      <c r="C9" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="4">
@@ -2830,30 +2847,30 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="22">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s" s="24">
+      <c r="G9" s="20">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="23">
         <v>45516</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="23">
         <v>45839</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="21">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <v>7</v>
       </c>
-      <c r="C10" t="s" s="23">
+      <c r="C10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="4">
@@ -2862,30 +2879,30 @@
       <c r="F10" s="4">
         <v>50</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <v>0</v>
       </c>
-      <c r="H10" t="s" s="24">
+      <c r="H10" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="23">
         <v>45547</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <v>45870</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="21">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <v>8</v>
       </c>
-      <c r="C11" t="s" s="23">
+      <c r="C11" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="4">
@@ -2894,22 +2911,22 @@
       <c r="F11" s="4">
         <v>50</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="20">
         <v>0</v>
       </c>
-      <c r="H11" t="s" s="24">
+      <c r="H11" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="23">
         <v>45577</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="23">
         <v>45901</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2917,400 +2934,178 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="16.8516" style="26" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="26" customWidth="1"/>
-    <col min="4" max="4" width="17" style="26" customWidth="1"/>
-    <col min="5" max="16384" width="12.6719" style="26" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="8">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="10">
+      <c r="B1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s" s="9">
+      <c r="D1" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27">
-        <v>1</v>
-      </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="12">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30">
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
         <v>0</v>
       </c>
-      <c r="D3" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="12">
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="30">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="12">
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27">
         <v>0</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="12">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="29">
-        <v>1</v>
-      </c>
-      <c r="C6" s="30">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="12">
+      <c r="B6" s="26">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="26">
         <v>2</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="27">
         <v>0</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="29">
-        <v>1</v>
-      </c>
-      <c r="C8" s="30">
+      <c r="B8" s="26">
+        <v>1</v>
+      </c>
+      <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="12">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="29">
-        <v>1</v>
-      </c>
-      <c r="C9" s="30">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22">
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="12">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="29">
-        <v>1</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="B10" s="26">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27">
         <v>0</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="12">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="28">
         <v>2</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="29">
         <v>0</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="20">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="3" width="10.8516" style="33" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="33" customWidth="1"/>
-    <col min="5" max="6" width="10.8516" style="33" customWidth="1"/>
-    <col min="7" max="16384" width="10.8516" style="33" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s" s="34">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s" s="34">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s" s="34">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s" s="34">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s" s="34">
-        <v>116</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="D7" t="s" s="34">
-        <v>120</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D8" t="s" s="34">
-        <v>124</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D9" t="s" s="34">
-        <v>128</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D10" t="s" s="34">
-        <v>132</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="D11" t="s" s="34">
-        <v>136</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Kouponapp/fixtures/data6.xlsx
+++ b/Kouponapp/fixtures/data6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaneekumsudsang/Senior-Project-65114540147/Kouponapp/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350F3B8A-384C-5B42-9C08-A03385459144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7A34D9-766E-4745-9027-C0E61442669C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -654,6 +654,15 @@
   </si>
   <si>
     <t>is_owner</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>โปรโมชั่นมีจำนวนจำกัด</t>
+  </si>
+  <si>
+    <t>ไม่สามารถแลกเป็นเงินสดได้</t>
   </si>
 </sst>
 </file>
@@ -710,7 +719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -870,20 +879,37 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="9"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="9"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -893,9 +919,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -938,10 +961,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -2074,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2112,10 +2147,10 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2141,8 +2176,8 @@
       <c r="G2" s="4">
         <v>1234</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="1">
+      <c r="H2" s="30"/>
+      <c r="I2" s="32">
         <v>1</v>
       </c>
     </row>
@@ -2168,8 +2203,8 @@
       <c r="G3" s="4">
         <v>1234</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="1">
+      <c r="H3" s="30"/>
+      <c r="I3" s="32">
         <v>1</v>
       </c>
     </row>
@@ -2195,8 +2230,8 @@
       <c r="G4" s="4">
         <v>1234</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1">
+      <c r="H4" s="30"/>
+      <c r="I4" s="32">
         <v>0</v>
       </c>
     </row>
@@ -2222,8 +2257,8 @@
       <c r="G5" s="4">
         <v>1234</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="31">
+      <c r="H5" s="30"/>
+      <c r="I5" s="33">
         <v>0</v>
       </c>
     </row>
@@ -2249,8 +2284,8 @@
       <c r="G6" s="4">
         <v>1234</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="31">
+      <c r="H6" s="30"/>
+      <c r="I6" s="33">
         <v>0</v>
       </c>
     </row>
@@ -2276,8 +2311,8 @@
       <c r="G7" s="4">
         <v>1234</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="31">
+      <c r="H7" s="30"/>
+      <c r="I7" s="33">
         <v>0</v>
       </c>
     </row>
@@ -2303,8 +2338,8 @@
       <c r="G8" s="4">
         <v>1234</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="31">
+      <c r="H8" s="30"/>
+      <c r="I8" s="33">
         <v>1</v>
       </c>
     </row>
@@ -2330,8 +2365,8 @@
       <c r="G9" s="4">
         <v>1234</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="31">
+      <c r="H9" s="30"/>
+      <c r="I9" s="33">
         <v>1</v>
       </c>
     </row>
@@ -2357,8 +2392,8 @@
       <c r="G10" s="4">
         <v>1234</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="31">
+      <c r="H10" s="30"/>
+      <c r="I10" s="33">
         <v>1</v>
       </c>
     </row>
@@ -2384,8 +2419,8 @@
       <c r="G11" s="4">
         <v>1234</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="31">
+      <c r="H11" s="30"/>
+      <c r="I11" s="33">
         <v>1</v>
       </c>
     </row>
@@ -2556,9 +2591,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2566,84 +2603,90 @@
     <col min="2" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="7" width="12.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
+    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>3</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>50</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>0</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="16">
         <v>45303</v>
       </c>
-      <c r="J2" s="18">
+      <c r="K2" s="17">
         <v>45657</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2655,27 +2698,30 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="20">
-        <v>1</v>
-      </c>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="19">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="22">
         <v>45334</v>
       </c>
-      <c r="J3" s="23">
+      <c r="K3" s="22">
         <v>45658</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2687,27 +2733,30 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="20">
-        <v>1</v>
-      </c>
-      <c r="H4" s="22" t="s">
+      <c r="G4" s="19">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="22">
         <v>45363</v>
       </c>
-      <c r="J4" s="23">
+      <c r="K4" s="22">
         <v>45689</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2719,27 +2768,30 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="22" t="s">
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="22">
         <v>45394</v>
       </c>
-      <c r="J5" s="23">
+      <c r="K5" s="22">
         <v>45717</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>4</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2751,27 +2803,30 @@
       <c r="F6" s="4">
         <v>50</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>0</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="22">
         <v>45424</v>
       </c>
-      <c r="J6" s="23">
+      <c r="K6" s="22">
         <v>45748</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>5</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2783,27 +2838,30 @@
       <c r="F7" s="4">
         <v>50</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>0</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="22">
         <v>45455</v>
       </c>
-      <c r="J7" s="23">
+      <c r="K7" s="22">
         <v>45778</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>6</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2815,27 +2873,30 @@
       <c r="F8" s="4">
         <v>50</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>0</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="22">
         <v>45485</v>
       </c>
-      <c r="J8" s="23">
+      <c r="K8" s="22">
         <v>45809</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>7</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2847,27 +2908,30 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="20">
-        <v>1</v>
-      </c>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="22">
         <v>45516</v>
       </c>
-      <c r="J9" s="23">
+      <c r="K9" s="22">
         <v>45839</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>7</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2879,27 +2943,30 @@
       <c r="F10" s="4">
         <v>50</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>0</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="22">
         <v>45547</v>
       </c>
-      <c r="J10" s="23">
+      <c r="K10" s="22">
         <v>45870</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>8</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2911,16 +2978,19 @@
       <c r="F11" s="4">
         <v>50</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>0</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="22">
         <v>45577</v>
       </c>
-      <c r="J11" s="23">
+      <c r="K11" s="22">
         <v>45901</v>
       </c>
     </row>
@@ -2937,7 +3007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2950,156 +3022,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24">
-        <v>1</v>
-      </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
         <v>0</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>2</v>
       </c>
-      <c r="C4" s="27">
-        <v>1</v>
-      </c>
-      <c r="D4" s="20">
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="26">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="25">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="26">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="B6" s="25">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>2</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="26">
-        <v>1</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="25">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26">
         <v>0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="26">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27">
-        <v>1</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="26">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26">
         <v>0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>2</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>0</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>1</v>
       </c>
     </row>

--- a/Kouponapp/fixtures/data6.xlsx
+++ b/Kouponapp/fixtures/data6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaneekumsudsang/Senior-Project-65114540147/Kouponapp/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7A34D9-766E-4745-9027-C0E61442669C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4D547F-FD76-CE44-9D4F-44E09327634B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -650,9 +650,6 @@
     <t>used</t>
   </si>
   <si>
-    <t>member_id</t>
-  </si>
-  <si>
     <t>is_owner</t>
   </si>
   <si>
@@ -663,6 +660,45 @@
   </si>
   <si>
     <t>ไม่สามารถแลกเป็นเงินสดได้</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>promotion</t>
+  </si>
+  <si>
+    <t>member</t>
   </si>
 </sst>
 </file>
@@ -672,7 +708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -704,6 +740,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -719,7 +772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -739,141 +792,6 @@
       </top>
       <bottom style="thin">
         <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -921,62 +839,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -2147,11 +2042,11 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
-        <v>98</v>
+      <c r="I1" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2176,8 +2071,8 @@
       <c r="G2" s="4">
         <v>1234</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="32">
+      <c r="H2" s="6"/>
+      <c r="I2" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2203,8 +2098,8 @@
       <c r="G3" s="4">
         <v>1234</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="32">
+      <c r="H3" s="6"/>
+      <c r="I3" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2230,8 +2125,8 @@
       <c r="G4" s="4">
         <v>1234</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="32">
+      <c r="H4" s="6"/>
+      <c r="I4" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2257,8 +2152,8 @@
       <c r="G5" s="4">
         <v>1234</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="33">
+      <c r="H5" s="6"/>
+      <c r="I5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2284,8 +2179,8 @@
       <c r="G6" s="4">
         <v>1234</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="33">
+      <c r="H6" s="6"/>
+      <c r="I6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2311,8 +2206,8 @@
       <c r="G7" s="4">
         <v>1234</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="33">
+      <c r="H7" s="6"/>
+      <c r="I7" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2338,8 +2233,8 @@
       <c r="G8" s="4">
         <v>1234</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="33">
+      <c r="H8" s="6"/>
+      <c r="I8" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2365,8 +2260,8 @@
       <c r="G9" s="4">
         <v>1234</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="33">
+      <c r="H9" s="6"/>
+      <c r="I9" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2392,8 +2287,8 @@
       <c r="G10" s="4">
         <v>1234</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="33">
+      <c r="H10" s="6"/>
+      <c r="I10" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2419,8 +2314,8 @@
       <c r="G11" s="4">
         <v>1234</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="33">
+      <c r="H11" s="6"/>
+      <c r="I11" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2591,10 +2486,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2609,46 +2504,49 @@
     <col min="12" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="L1" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2657,341 +2555,371 @@
       <c r="D2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>3</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="16">
         <v>50</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="15">
         <v>0</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="19">
+        <v>45303</v>
+      </c>
+      <c r="K2" s="20">
+        <v>45657</v>
+      </c>
+      <c r="L2" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="16">
+        <v>5</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="16">
-        <v>45303</v>
-      </c>
-      <c r="K2" s="17">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="J3" s="19">
+        <v>45334</v>
+      </c>
+      <c r="K3" s="19">
+        <v>45658</v>
+      </c>
+      <c r="L3" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="C4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="16">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="H4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="19">
+        <v>45363</v>
+      </c>
+      <c r="K4" s="19">
+        <v>45689</v>
+      </c>
+      <c r="L4" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E5" s="16">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="19">
+        <v>45394</v>
+      </c>
+      <c r="K5" s="19">
+        <v>45717</v>
+      </c>
+      <c r="L5" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="B6" s="15">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16">
+        <v>50</v>
+      </c>
+      <c r="G6" s="15">
         <v>0</v>
       </c>
-      <c r="G3" s="19">
+      <c r="H6" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="19">
+        <v>45424</v>
+      </c>
+      <c r="K6" s="19">
+        <v>45748</v>
+      </c>
+      <c r="L6" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="16">
+        <v>3</v>
+      </c>
+      <c r="F7" s="16">
+        <v>50</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="19">
+        <v>45455</v>
+      </c>
+      <c r="K7" s="19">
+        <v>45778</v>
+      </c>
+      <c r="L7" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="16">
+        <v>5</v>
+      </c>
+      <c r="F8" s="16">
+        <v>50</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="19">
+        <v>45485</v>
+      </c>
+      <c r="K8" s="19">
+        <v>45809</v>
+      </c>
+      <c r="L8" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="16">
+        <v>10</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
         <v>1</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="22">
-        <v>45334</v>
-      </c>
-      <c r="K3" s="22">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19">
-        <v>2</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="H9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="19">
+        <v>45516</v>
+      </c>
+      <c r="K9" s="19">
+        <v>45839</v>
+      </c>
+      <c r="L9" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E10" s="16">
+        <v>5</v>
+      </c>
+      <c r="F10" s="16">
+        <v>50</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="19">
+        <v>45547</v>
+      </c>
+      <c r="K10" s="19">
+        <v>45870</v>
+      </c>
+      <c r="L10" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="F4" s="4">
+      <c r="B11" s="15">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="16">
+        <v>5</v>
+      </c>
+      <c r="F11" s="16">
+        <v>50</v>
+      </c>
+      <c r="G11" s="15">
         <v>0</v>
       </c>
-      <c r="G4" s="19">
-        <v>1</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="36" t="s">
+      <c r="H11" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="22">
-        <v>45363</v>
-      </c>
-      <c r="K4" s="22">
-        <v>45689</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19">
-        <v>3</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="22">
-        <v>45394</v>
-      </c>
-      <c r="K5" s="22">
-        <v>45717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19">
-        <v>4</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="J11" s="19">
+        <v>45577</v>
+      </c>
+      <c r="K11" s="19">
+        <v>45901</v>
+      </c>
+      <c r="L11" s="8">
         <v>50</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="22">
-        <v>45424</v>
-      </c>
-      <c r="K6" s="22">
-        <v>45748</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19">
-        <v>5</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4">
-        <v>50</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="22">
-        <v>45455</v>
-      </c>
-      <c r="K7" s="22">
-        <v>45778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19">
-        <v>6</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4">
-        <v>50</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="22">
-        <v>45485</v>
-      </c>
-      <c r="K8" s="22">
-        <v>45809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19">
-        <v>7</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="4">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="22">
-        <v>45516</v>
-      </c>
-      <c r="K9" s="22">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19">
-        <v>7</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>50</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="22">
-        <v>45547</v>
-      </c>
-      <c r="K10" s="22">
-        <v>45870</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19">
-        <v>8</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="4">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4">
-        <v>50</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="22">
-        <v>45577</v>
-      </c>
-      <c r="K11" s="22">
-        <v>45901</v>
       </c>
     </row>
   </sheetData>
@@ -3005,10 +2933,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3021,161 +2949,195 @@
     <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="14">
+      <c r="E2" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="25">
+      <c r="E5" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C6" s="15">
         <v>0</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D6" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+      <c r="E6" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="25">
+      <c r="E8" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>3</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26">
-        <v>0</v>
-      </c>
-      <c r="D5" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26">
-        <v>1</v>
-      </c>
-      <c r="D6" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25">
-        <v>2</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="25">
-        <v>1</v>
-      </c>
-      <c r="C8" s="26">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25">
-        <v>1</v>
-      </c>
-      <c r="C9" s="26">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25">
-        <v>1</v>
-      </c>
-      <c r="C10" s="26">
-        <v>0</v>
-      </c>
-      <c r="D10" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27">
-        <v>2</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1</v>
+      <c r="E11" s="22" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/Kouponapp/fixtures/data6.xlsx
+++ b/Kouponapp/fixtures/data6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaneekumsudsang/Senior-Project-65114540147/Kouponapp/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4D547F-FD76-CE44-9D4F-44E09327634B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A30DBF-5C2C-9846-92DC-9F0142811FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -644,9 +644,6 @@
     <t>j.png</t>
   </si>
   <si>
-    <t>promotion_id</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
@@ -665,40 +662,46 @@
     <t>count</t>
   </si>
   <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
     <t>promotion</t>
   </si>
   <si>
     <t>member</t>
+  </si>
+  <si>
+    <t>promotion_count</t>
+  </si>
+  <si>
+    <t>qr_code_url</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/use/1/1</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/use/1/2</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/use/1/3</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/use/1/4</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/use/1/5</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/use/2/1</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/use/2/2</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/use/2/3</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/use/2/4</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/use/2/5</t>
   </si>
 </sst>
 </file>
@@ -708,7 +711,7 @@
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -743,6 +746,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -824,10 +834,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -869,12 +880,15 @@
     <xf numFmtId="187" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -2046,7 +2060,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2530,7 +2544,7 @@
         <v>76</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>77</v>
@@ -2539,7 +2553,7 @@
         <v>78</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2568,7 +2582,7 @@
         <v>81</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J2" s="19">
         <v>45303</v>
@@ -2606,7 +2620,7 @@
         <v>84</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" s="19">
         <v>45334</v>
@@ -2644,7 +2658,7 @@
         <v>86</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J4" s="19">
         <v>45363</v>
@@ -2682,7 +2696,7 @@
         <v>86</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J5" s="19">
         <v>45394</v>
@@ -2720,7 +2734,7 @@
         <v>89</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J6" s="19">
         <v>45424</v>
@@ -2758,7 +2772,7 @@
         <v>81</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7" s="19">
         <v>45455</v>
@@ -2796,7 +2810,7 @@
         <v>89</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="19">
         <v>45485</v>
@@ -2834,7 +2848,7 @@
         <v>86</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J9" s="19">
         <v>45516</v>
@@ -2872,7 +2886,7 @@
         <v>89</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="19">
         <v>45547</v>
@@ -2910,7 +2924,7 @@
         <v>89</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" s="19">
         <v>45577</v>
@@ -2933,10 +2947,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2949,24 +2963,27 @@
     <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="21" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2979,11 +2996,14 @@
       <c r="D2" s="15">
         <v>1</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2994,13 +3014,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="15">
-        <v>1</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23">
+        <v>2</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3011,13 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="15">
-        <v>1</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="E4" s="23">
+        <v>3</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3028,13 +3054,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="15">
-        <v>2</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="E5" s="23">
+        <v>4</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3045,13 +3074,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="E6" s="23">
+        <v>5</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -3062,13 +3094,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="15">
-        <v>2</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -3079,13 +3114,16 @@
         <v>0</v>
       </c>
       <c r="D8" s="15">
-        <v>3</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -3096,13 +3134,16 @@
         <v>0</v>
       </c>
       <c r="D9" s="15">
-        <v>2</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="E9" s="23">
+        <v>3</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -3113,13 +3154,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="15">
-        <v>3</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="E10" s="23">
+        <v>4</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -3130,14 +3174,27 @@
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>111</v>
+        <v>5</v>
+      </c>
+      <c r="E11" s="23">
+        <v>5</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{9B373145-A6AF-4047-A970-4C41050DCDCB}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{E890DCCC-6098-8F4A-A9B7-4F4C8F75E1BD}"/>
+    <hyperlink ref="F5" r:id="rId3" display="http://127.0.0.1/koupon/qr/A/use/1/2" xr:uid="{7AB92E1A-F888-6E44-8A3C-CD329172C8F3}"/>
+    <hyperlink ref="A1" r:id="rId4" display="http://127.0.0.1/koupon/qr/A/use/1/2" xr:uid="{6303F92B-662C-D242-8F6E-D2494B37D3E7}"/>
+    <hyperlink ref="F4" r:id="rId5" display="http://127.0.0.1/koupon/qr/A/use/1/1" xr:uid="{B45DCA82-628B-914C-BF50-C6527577BDBF}"/>
+    <hyperlink ref="F6" r:id="rId6" display="http://127.0.0.1/koupon/qr/A/use/1/1" xr:uid="{A8F612AA-6E76-6446-AB83-E727446DD0ED}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{3FC59165-8E64-F041-B56B-CD038CDADF25}"/>
+    <hyperlink ref="F8:F11" r:id="rId8" display="http://127.0.0.1/koupon/qr/A/use/2/1" xr:uid="{E313AB81-85DD-B146-A806-C66910860075}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/Kouponapp/fixtures/data6.xlsx
+++ b/Kouponapp/fixtures/data6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaneekumsudsang/Senior-Project-65114540147/Kouponapp/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A30DBF-5C2C-9846-92DC-9F0142811FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B798972D-AE4E-B743-B151-C21A5E86A065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,9 +644,6 @@
     <t>j.png</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>is_owner</t>
   </si>
   <si>
@@ -702,6 +699,9 @@
   </si>
   <si>
     <t>http://127.0.0.1/koupon/qr/A/use/2/5</t>
+  </si>
+  <si>
+    <t>collect</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -755,6 +755,11 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
     </font>
     <font>
       <sz val="11"/>
@@ -838,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -881,7 +886,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
@@ -2022,7 +2028,7 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="1" customWidth="1"/>
@@ -2034,7 +2040,7 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="13.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2060,10 +2066,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.75" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="13.75" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="13.75" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="13.75" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="13.75" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="13.75" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2225,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="13.75" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="13.75" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="13.75" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="13.75" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2360,7 +2366,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" style="1" customWidth="1"/>
@@ -2368,7 +2374,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="13.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +2385,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="13.75" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2390,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="13.75" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2401,7 +2407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="13.75" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="13.75" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2423,7 +2429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="13.75" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="13.75" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="13.75" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="13.75" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2467,7 +2473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="13.75" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="13.75" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2503,10 +2509,10 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="17" style="1" customWidth="1"/>
@@ -2518,7 +2524,7 @@
     <col min="12" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>76</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>77</v>
@@ -2553,10 +2559,10 @@
         <v>78</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>81</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="19">
         <v>45303</v>
@@ -2594,7 +2600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>84</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J3" s="19">
         <v>45334</v>
@@ -2632,7 +2638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>86</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J4" s="19">
         <v>45363</v>
@@ -2670,7 +2676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>86</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J5" s="19">
         <v>45394</v>
@@ -2708,7 +2714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2734,7 +2740,7 @@
         <v>89</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J6" s="19">
         <v>45424</v>
@@ -2746,7 +2752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>81</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J7" s="19">
         <v>45455</v>
@@ -2784,7 +2790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2810,7 +2816,7 @@
         <v>89</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J8" s="19">
         <v>45485</v>
@@ -2822,7 +2828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2848,7 +2854,7 @@
         <v>86</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="19">
         <v>45516</v>
@@ -2860,7 +2866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>89</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" s="19">
         <v>45547</v>
@@ -2898,7 +2904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2924,7 +2930,7 @@
         <v>89</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="19">
         <v>45577</v>
@@ -2950,10 +2956,10 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
@@ -2963,27 +2969,27 @@
     <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2996,14 +3002,14 @@
       <c r="D2" s="15">
         <v>1</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="24">
         <v>1</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3016,14 +3022,14 @@
       <c r="D3" s="15">
         <v>2</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="24">
         <v>2</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3036,14 +3042,14 @@
       <c r="D4" s="15">
         <v>3</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="24">
         <v>3</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3056,14 +3062,14 @@
       <c r="D5" s="15">
         <v>4</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="24">
         <v>4</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3076,14 +3082,14 @@
       <c r="D6" s="15">
         <v>5</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="24">
         <v>5</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -3096,14 +3102,14 @@
       <c r="D7" s="15">
         <v>1</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="24">
         <v>1</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -3116,14 +3122,14 @@
       <c r="D8" s="15">
         <v>2</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="24">
         <v>2</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -3136,14 +3142,14 @@
       <c r="D9" s="15">
         <v>3</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="24">
         <v>3</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -3156,14 +3162,14 @@
       <c r="D10" s="15">
         <v>4</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="24">
         <v>4</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -3176,15 +3182,15 @@
       <c r="D11" s="15">
         <v>5</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="24">
         <v>5</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>114</v>
+      <c r="F11" s="26" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{9B373145-A6AF-4047-A970-4C41050DCDCB}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{E890DCCC-6098-8F4A-A9B7-4F4C8F75E1BD}"/>

--- a/Kouponapp/fixtures/data6.xlsx
+++ b/Kouponapp/fixtures/data6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaneekumsudsang/Senior-Project-65114540147/Kouponapp/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B798972D-AE4E-B743-B151-C21A5E86A065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7776CC56-7D89-A048-8859-C8E33CA04C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -668,9 +668,6 @@
     <t>promotion_count</t>
   </si>
   <si>
-    <t>qr_code_url</t>
-  </si>
-  <si>
     <t>http://127.0.0.1/koupon/qr/A/use/1/1</t>
   </si>
   <si>
@@ -702,6 +699,42 @@
   </si>
   <si>
     <t>collect</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/collec/1/1</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/collec/1/2</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/collec/1/3</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/collec/1/4</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/collec/1/5</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/collec/2/1</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/collec/2/2</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/collec/2/3</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/collec/2/4</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/A/collec/2/5</t>
+  </si>
+  <si>
+    <t>collect_qr_code_url</t>
+  </si>
+  <si>
+    <t>use_qr_code_url</t>
   </si>
 </sst>
 </file>
@@ -711,7 +744,7 @@
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -769,6 +802,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -843,7 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -891,6 +930,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -2953,10 +2993,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2966,10 +3006,11 @@
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="1"/>
+    <col min="6" max="6" width="31.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2977,7 +3018,7 @@
         <v>100</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>101</v>
@@ -2986,10 +3027,13 @@
         <v>102</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+        <v>124</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3006,10 +3050,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+        <v>114</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3026,10 +3073,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+        <v>115</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3046,10 +3096,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+        <v>116</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3066,10 +3119,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+        <v>117</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3086,10 +3142,13 @@
         <v>5</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+        <v>118</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -3106,10 +3165,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+        <v>119</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -3126,10 +3188,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+        <v>120</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -3146,10 +3211,13 @@
         <v>3</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+        <v>121</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -3166,10 +3234,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+        <v>122</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -3186,20 +3257,23 @@
         <v>5</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{9B373145-A6AF-4047-A970-4C41050DCDCB}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{E890DCCC-6098-8F4A-A9B7-4F4C8F75E1BD}"/>
-    <hyperlink ref="F5" r:id="rId3" display="http://127.0.0.1/koupon/qr/A/use/1/2" xr:uid="{7AB92E1A-F888-6E44-8A3C-CD329172C8F3}"/>
-    <hyperlink ref="A1" r:id="rId4" display="http://127.0.0.1/koupon/qr/A/use/1/2" xr:uid="{6303F92B-662C-D242-8F6E-D2494B37D3E7}"/>
-    <hyperlink ref="F4" r:id="rId5" display="http://127.0.0.1/koupon/qr/A/use/1/1" xr:uid="{B45DCA82-628B-914C-BF50-C6527577BDBF}"/>
-    <hyperlink ref="F6" r:id="rId6" display="http://127.0.0.1/koupon/qr/A/use/1/1" xr:uid="{A8F612AA-6E76-6446-AB83-E727446DD0ED}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{3FC59165-8E64-F041-B56B-CD038CDADF25}"/>
-    <hyperlink ref="F8:F11" r:id="rId8" display="http://127.0.0.1/koupon/qr/A/use/2/1" xr:uid="{E313AB81-85DD-B146-A806-C66910860075}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E890DCCC-6098-8F4A-A9B7-4F4C8F75E1BD}"/>
+    <hyperlink ref="A1" r:id="rId2" display="http://127.0.0.1/koupon/qr/A/use/1/2" xr:uid="{6303F92B-662C-D242-8F6E-D2494B37D3E7}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{0B821BD0-418F-CE47-993B-F50BEF46A723}"/>
+    <hyperlink ref="F8:F11" r:id="rId4" display="http://127.0.0.1/koupon/qr/A/collec/2/1" xr:uid="{42904EF0-79FB-9649-AC45-3FCBF354E627}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{1A184163-F028-3946-B8B9-50ECFBB0B403}"/>
+    <hyperlink ref="G3:G6" r:id="rId6" display="http://127.0.0.1/koupon/qr/A/use/1/1" xr:uid="{6658C428-E15A-CD42-B237-0618EA7322A9}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{39C517D2-6EC9-114D-9D8A-F0A8A5573C7F}"/>
+    <hyperlink ref="G8:G11" r:id="rId8" display="http://127.0.0.1/koupon/qr/A/use/2/1" xr:uid="{2AE80BC6-1002-3946-A641-7EAD7B6D3EF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Kouponapp/fixtures/data6.xlsx
+++ b/Kouponapp/fixtures/data6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaneekumsudsang/Senior-Project-65114540147/Kouponapp/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7776CC56-7D89-A048-8859-C8E33CA04C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFC9914-B002-FC45-A3FE-1CBE0016937F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -2065,7 +2065,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
@@ -2110,7 +2110,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2137,7 +2137,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2164,7 +2164,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2191,7 +2191,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2218,7 +2218,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2245,7 +2245,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2272,7 +2272,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2295,11 +2295,11 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2322,11 +2322,11 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2404,7 +2404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
@@ -2426,7 +2428,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2437,7 +2439,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2448,7 +2450,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2459,7 +2461,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2470,7 +2472,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2481,7 +2483,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2492,7 +2494,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2503,7 +2505,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2514,7 +2516,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2525,7 +2527,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2548,13 +2550,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="7" width="12.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" style="1" customWidth="1"/>
@@ -2603,7 +2605,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="15">
@@ -2641,7 +2643,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="15">
@@ -2679,7 +2681,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="15">
@@ -2717,7 +2719,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="15">
@@ -2755,7 +2757,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="15">
@@ -2793,7 +2795,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="15">
@@ -2831,7 +2833,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="15">
@@ -2869,7 +2871,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="15">
@@ -2907,7 +2909,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="8">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="15">
@@ -2945,7 +2947,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="15">
@@ -2983,6 +2985,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -2995,19 +2998,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -3034,7 +3038,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -3057,7 +3061,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="16">
@@ -3080,7 +3084,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="16">
@@ -3103,7 +3107,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="16">
@@ -3126,7 +3130,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="16">
@@ -3149,7 +3153,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="16">
@@ -3172,7 +3176,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="16">
@@ -3195,7 +3199,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="16">
@@ -3218,7 +3222,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="8">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="16">
@@ -3241,7 +3245,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="16">
@@ -3266,14 +3270,14 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{E890DCCC-6098-8F4A-A9B7-4F4C8F75E1BD}"/>
-    <hyperlink ref="A1" r:id="rId2" display="http://127.0.0.1/koupon/qr/A/use/1/2" xr:uid="{6303F92B-662C-D242-8F6E-D2494B37D3E7}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{0B821BD0-418F-CE47-993B-F50BEF46A723}"/>
-    <hyperlink ref="F8:F11" r:id="rId4" display="http://127.0.0.1/koupon/qr/A/collec/2/1" xr:uid="{42904EF0-79FB-9649-AC45-3FCBF354E627}"/>
+    <hyperlink ref="A1" r:id="rId1" display="http://127.0.0.1/koupon/qr/A/use/1/2" xr:uid="{6303F92B-662C-D242-8F6E-D2494B37D3E7}"/>
+    <hyperlink ref="G8:G11" r:id="rId2" display="http://127.0.0.1/koupon/qr/A/use/2/1" xr:uid="{2AE80BC6-1002-3946-A641-7EAD7B6D3EF0}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{39C517D2-6EC9-114D-9D8A-F0A8A5573C7F}"/>
+    <hyperlink ref="G3:G6" r:id="rId4" display="http://127.0.0.1/koupon/qr/A/use/1/1" xr:uid="{6658C428-E15A-CD42-B237-0618EA7322A9}"/>
     <hyperlink ref="G2" r:id="rId5" xr:uid="{1A184163-F028-3946-B8B9-50ECFBB0B403}"/>
-    <hyperlink ref="G3:G6" r:id="rId6" display="http://127.0.0.1/koupon/qr/A/use/1/1" xr:uid="{6658C428-E15A-CD42-B237-0618EA7322A9}"/>
-    <hyperlink ref="G7" r:id="rId7" xr:uid="{39C517D2-6EC9-114D-9D8A-F0A8A5573C7F}"/>
-    <hyperlink ref="G8:G11" r:id="rId8" display="http://127.0.0.1/koupon/qr/A/use/2/1" xr:uid="{2AE80BC6-1002-3946-A641-7EAD7B6D3EF0}"/>
+    <hyperlink ref="F8:F11" r:id="rId6" display="http://127.0.0.1/koupon/qr/A/collec/2/1" xr:uid="{42904EF0-79FB-9649-AC45-3FCBF354E627}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{0B821BD0-418F-CE47-993B-F50BEF46A723}"/>
+    <hyperlink ref="F2" r:id="rId8" xr:uid="{E890DCCC-6098-8F4A-A9B7-4F4C8F75E1BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Kouponapp/fixtures/data6.xlsx
+++ b/Kouponapp/fixtures/data6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaneekumsudsang/Senior-Project-65114540147/Kouponapp/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFC9914-B002-FC45-A3FE-1CBE0016937F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647786DE-403F-1042-917E-9AB23A55D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>profile_img</t>
+  </si>
+  <si>
+    <t>is_owner</t>
   </si>
   <si>
     <t>a</t>
@@ -65,7 +68,7 @@
       <rPr>
         <u/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -89,7 +92,7 @@
       <rPr>
         <u/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -113,7 +116,7 @@
       <rPr>
         <u/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -137,7 +140,7 @@
       <rPr>
         <u/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -161,7 +164,7 @@
       <rPr>
         <u/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -185,7 +188,7 @@
       <rPr>
         <u/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -209,7 +212,7 @@
       <rPr>
         <u/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -233,7 +236,7 @@
       <rPr>
         <u/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -257,7 +260,7 @@
       <rPr>
         <u/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -281,7 +284,7 @@
       <rPr>
         <u/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -346,10 +349,16 @@
     <t>name</t>
   </si>
   <si>
+    <t>details</t>
+  </si>
+  <si>
     <t>start</t>
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
   <si>
     <t>a.png</t>
@@ -415,6 +424,9 @@
       </rPr>
       <t xml:space="preserve"> 50 %</t>
     </r>
+  </si>
+  <si>
+    <t>โปรโมชั่นมีจำนวนจำกัด</t>
   </si>
   <si>
     <t>b.png</t>
@@ -492,6 +504,9 @@
     </r>
   </si>
   <si>
+    <t>ไม่สามารถแลกเป็นเงินสดได้</t>
+  </si>
+  <si>
     <t>c.png</t>
   </si>
   <si>
@@ -644,97 +659,115 @@
     <t>j.png</t>
   </si>
   <si>
-    <t>is_owner</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>โปรโมชั่นมีจำนวนจำกัด</t>
-  </si>
-  <si>
-    <t>ไม่สามารถแลกเป็นเงินสดได้</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>promotion</t>
   </si>
   <si>
+    <t>collect</t>
+  </si>
+  <si>
     <t>member</t>
   </si>
   <si>
     <t>promotion_count</t>
   </si>
   <si>
-    <t>http://127.0.0.1/koupon/qr/A/use/1/1</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/use/1/2</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/use/1/3</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/use/1/4</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/use/1/5</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/use/2/1</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/use/2/2</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/use/2/3</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/use/2/4</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/use/2/5</t>
-  </si>
-  <si>
-    <t>collect</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/collec/1/1</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/collec/1/2</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/collec/1/3</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/collec/1/4</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/collec/1/5</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/collec/2/1</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/collec/2/2</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/collec/2/3</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/collec/2/4</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1/koupon/qr/A/collec/2/5</t>
-  </si>
-  <si>
     <t>collect_qr_code_url</t>
   </si>
   <si>
     <t>use_qr_code_url</t>
+  </si>
+  <si>
+    <t>collect_qr_code_image</t>
+  </si>
+  <si>
+    <t>use_qr_code_url_image</t>
+  </si>
+  <si>
+    <t>collected_at</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>used_at</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/1/use/3/1/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/1/use/3/2/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/1/use/3/3/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/2/use/2/4/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/2/use/2/5/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/3/use/3/1/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/3/use/3/2/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/3/use/3/3/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/1/collec/3/1/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/1/collec/3/2/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/1/collec/3/3/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/2/collec/2/4/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/2/collec/2/5/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/3/collec/3/1/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/3/collec/3/2/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/koupon/qr/3/collec/3/3/</t>
+  </si>
+  <si>
+    <t>collect_qr_3_1.png</t>
+  </si>
+  <si>
+    <t>use_qr_3_1.png</t>
+  </si>
+  <si>
+    <t>use_qr_3_2.png</t>
+  </si>
+  <si>
+    <t>use_qr_3_3.png</t>
+  </si>
+  <si>
+    <t>use_qr_2_4.png</t>
+  </si>
+  <si>
+    <t>use_qr_2_5.png</t>
+  </si>
+  <si>
+    <t>collect_qr_3_2.png</t>
+  </si>
+  <si>
+    <t>collect_qr_3_3.png</t>
+  </si>
+  <si>
+    <t>collect_qr_2_4.png</t>
+  </si>
+  <si>
+    <t>collect_qr_2_5.png</t>
   </si>
 </sst>
 </file>
@@ -744,7 +777,7 @@
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -752,14 +785,20 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
-      <color indexed="11"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -777,12 +816,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -790,24 +823,49 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="-webkit-standard"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -821,12 +879,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -836,16 +894,76 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,73 +982,83 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -949,11 +1077,11 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFAAAAAA"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF1155CC"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00800000"/>
@@ -1210,17 +1338,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1247,10 +1375,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1495,12 +1623,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1783,7 +1911,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1810,10 +1938,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2065,7 +2193,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
@@ -2076,8 +2204,8 @@
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.75" customHeight="1">
@@ -2093,7 +2221,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -2105,278 +2233,278 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>95</v>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A2" s="18">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1234</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13.75" customHeight="1">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1234</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13.75" customHeight="1">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1234</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13.75" customHeight="1">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1234</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.75" customHeight="1">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1234</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13.75" customHeight="1">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1234</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.75" customHeight="1">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1234</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.75" customHeight="1">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1234</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.75" customHeight="1">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1234</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.75" customHeight="1">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="8">
         <v>1234</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="8">
+      <c r="H11" s="9"/>
+      <c r="I11" s="10">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1234</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1234</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1234</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1234</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1234</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1234</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1234</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1234</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="13.75" customHeight="1">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1234</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="9">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2405,7 +2533,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
@@ -2420,120 +2548,120 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A2" s="18">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A3" s="18">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A4" s="18">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A5" s="18">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A6" s="18">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A7" s="18">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A8" s="18">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A9" s="18">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A10" s="18">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A11" s="18">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="8">
         <v>10</v>
       </c>
     </row>
@@ -2548,7 +2676,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -2563,429 +2691,465 @@
     <col min="9" max="9" width="20.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.6640625" style="1"/>
+    <col min="12" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" customHeight="1">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="14">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14">
+        <v>50</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="16">
+        <v>45303</v>
+      </c>
+      <c r="K2" s="17">
+        <v>45657</v>
+      </c>
+      <c r="L2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="16">
+        <v>45334</v>
+      </c>
+      <c r="K3" s="16">
+        <v>45658</v>
+      </c>
+      <c r="L3" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="14">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="16">
+        <v>45363</v>
+      </c>
+      <c r="K4" s="16">
+        <v>45689</v>
+      </c>
+      <c r="L4" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="14">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="16">
+        <v>45394</v>
+      </c>
+      <c r="K5" s="16">
+        <v>45717</v>
+      </c>
+      <c r="L5" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5</v>
+      </c>
+      <c r="F6" s="14">
+        <v>50</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="16">
+        <v>45424</v>
+      </c>
+      <c r="K6" s="16">
+        <v>45748</v>
+      </c>
+      <c r="L6" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3</v>
+      </c>
+      <c r="F7" s="14">
+        <v>50</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="16">
+        <v>45455</v>
+      </c>
+      <c r="K7" s="16">
+        <v>45778</v>
+      </c>
+      <c r="L7" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="14" t="s">
+      <c r="D8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="14">
+        <v>5</v>
+      </c>
+      <c r="F8" s="14">
+        <v>50</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="16">
+        <v>45485</v>
+      </c>
+      <c r="K8" s="16">
+        <v>45809</v>
+      </c>
+      <c r="L8" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="14">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="16">
+        <v>45516</v>
+      </c>
+      <c r="K9" s="16">
+        <v>45839</v>
+      </c>
+      <c r="L9" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="14">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14">
+        <v>50</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="16">
+        <v>45547</v>
+      </c>
+      <c r="K10" s="16">
+        <v>45870</v>
+      </c>
+      <c r="L10" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="16" customHeight="1">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="16">
-        <v>3</v>
-      </c>
-      <c r="F2" s="16">
+      <c r="D11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="14">
+        <v>5</v>
+      </c>
+      <c r="F11" s="14">
         <v>50</v>
       </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="19">
-        <v>45303</v>
-      </c>
-      <c r="K2" s="20">
-        <v>45657</v>
-      </c>
-      <c r="L2" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="16">
-        <v>5</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>1</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="19">
-        <v>45334</v>
-      </c>
-      <c r="K3" s="19">
-        <v>45658</v>
-      </c>
-      <c r="L3" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="16">
-        <v>10</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>1</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="19">
-        <v>45363</v>
-      </c>
-      <c r="K4" s="19">
-        <v>45689</v>
-      </c>
-      <c r="L4" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="16">
-        <v>10</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>1</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="19">
-        <v>45394</v>
-      </c>
-      <c r="K5" s="19">
-        <v>45717</v>
-      </c>
-      <c r="L5" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="16">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="16">
+        <v>45577</v>
+      </c>
+      <c r="K11" s="16">
+        <v>45901</v>
+      </c>
+      <c r="L11" s="10">
         <v>50</v>
       </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="19">
-        <v>45424</v>
-      </c>
-      <c r="K6" s="19">
-        <v>45748</v>
-      </c>
-      <c r="L6" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="16">
-        <v>3</v>
-      </c>
-      <c r="F7" s="16">
-        <v>50</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="19">
-        <v>45455</v>
-      </c>
-      <c r="K7" s="19">
-        <v>45778</v>
-      </c>
-      <c r="L7" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="16">
-        <v>5</v>
-      </c>
-      <c r="F8" s="16">
-        <v>50</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="19">
-        <v>45485</v>
-      </c>
-      <c r="K8" s="19">
-        <v>45809</v>
-      </c>
-      <c r="L8" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="16">
-        <v>10</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="19">
-        <v>45516</v>
-      </c>
-      <c r="K9" s="19">
-        <v>45839</v>
-      </c>
-      <c r="L9" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="16">
-        <v>5</v>
-      </c>
-      <c r="F10" s="16">
-        <v>50</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="19">
-        <v>45547</v>
-      </c>
-      <c r="K10" s="19">
-        <v>45870</v>
-      </c>
-      <c r="L10" s="8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="16">
-        <v>5</v>
-      </c>
-      <c r="F11" s="16">
-        <v>50</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="19">
-        <v>45577</v>
-      </c>
-      <c r="K11" s="19">
-        <v>45901</v>
-      </c>
-      <c r="L11" s="8">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A16" s="18"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A17" s="18"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A18" s="18"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A19" s="18"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A20" s="18"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A21" s="18"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A22" s="18"/>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A23" s="18"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A24" s="18"/>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A25" s="18"/>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A26" s="18"/>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A27" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -2996,288 +3160,416 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.6640625" style="1"/>
+    <col min="6" max="6" width="46.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1"/>
+    <col min="11" max="11" width="7" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23">
+        <v>0</v>
+      </c>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>2</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23">
+        <v>0</v>
+      </c>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
+        <v>3</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>3</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="H4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23">
+        <v>0</v>
+      </c>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21">
+        <v>2</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>5</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23">
+        <v>0</v>
+      </c>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21">
+        <v>3</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G7" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21">
+        <v>3</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <v>2</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1</v>
-      </c>
-      <c r="E2" s="24">
-        <v>1</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="G8" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23">
+        <v>0</v>
+      </c>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0</v>
+      </c>
+      <c r="E9" s="21">
+        <v>3</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>2</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
+        <v>4</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="18">
+      <c r="H10" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23">
+        <v>0</v>
+      </c>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C11" s="21">
         <v>2</v>
       </c>
-      <c r="E3" s="24">
-        <v>2</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
+        <v>5</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>3</v>
-      </c>
-      <c r="E4" s="24">
-        <v>3</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>4</v>
-      </c>
-      <c r="E5" s="24">
-        <v>4</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>5</v>
-      </c>
-      <c r="E6" s="24">
-        <v>5</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="24">
-        <v>1</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16">
-        <v>2</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>2</v>
-      </c>
-      <c r="E8" s="24">
-        <v>2</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16">
-        <v>2</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
-        <v>3</v>
-      </c>
-      <c r="E9" s="24">
-        <v>3</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16">
-        <v>2</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>4</v>
-      </c>
-      <c r="E10" s="24">
-        <v>4</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16">
-        <v>2</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>5</v>
-      </c>
-      <c r="E11" s="24">
-        <v>5</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>112</v>
-      </c>
+      <c r="H11" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="F12" s="24"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="F13" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://127.0.0.1/koupon/qr/A/use/1/2" xr:uid="{6303F92B-662C-D242-8F6E-D2494B37D3E7}"/>
-    <hyperlink ref="G8:G11" r:id="rId2" display="http://127.0.0.1/koupon/qr/A/use/2/1" xr:uid="{2AE80BC6-1002-3946-A641-7EAD7B6D3EF0}"/>
-    <hyperlink ref="G7" r:id="rId3" xr:uid="{39C517D2-6EC9-114D-9D8A-F0A8A5573C7F}"/>
-    <hyperlink ref="G3:G6" r:id="rId4" display="http://127.0.0.1/koupon/qr/A/use/1/1" xr:uid="{6658C428-E15A-CD42-B237-0618EA7322A9}"/>
-    <hyperlink ref="G2" r:id="rId5" xr:uid="{1A184163-F028-3946-B8B9-50ECFBB0B403}"/>
-    <hyperlink ref="F8:F11" r:id="rId6" display="http://127.0.0.1/koupon/qr/A/collec/2/1" xr:uid="{42904EF0-79FB-9649-AC45-3FCBF354E627}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{0B821BD0-418F-CE47-993B-F50BEF46A723}"/>
-    <hyperlink ref="F2" r:id="rId8" xr:uid="{E890DCCC-6098-8F4A-A9B7-4F4C8F75E1BD}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
